--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1140.950381698405</v>
+        <v>1213.766430275899</v>
       </c>
       <c r="AB2" t="n">
-        <v>1561.09864741812</v>
+        <v>1660.72877749919</v>
       </c>
       <c r="AC2" t="n">
-        <v>1412.109583524247</v>
+        <v>1502.231153822145</v>
       </c>
       <c r="AD2" t="n">
-        <v>1140950.381698405</v>
+        <v>1213766.430275899</v>
       </c>
       <c r="AE2" t="n">
-        <v>1561098.64741812</v>
+        <v>1660728.77749919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.559066876750143e-06</v>
+        <v>2.635679910121775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1412109.583524246</v>
+        <v>1502231.153822145</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.261623871552</v>
+        <v>439.8342198353036</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.9191238438708</v>
+        <v>601.8005836949687</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.9128074630048</v>
+        <v>544.3655806195443</v>
       </c>
       <c r="AD3" t="n">
-        <v>398261.623871552</v>
+        <v>439834.2198353036</v>
       </c>
       <c r="AE3" t="n">
-        <v>544919.1238438708</v>
+        <v>601800.5836949687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.904704836059895e-06</v>
+        <v>4.910547645778485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>492912.8074630048</v>
+        <v>544365.5806195443</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.2663148097708</v>
+        <v>346.753569918951</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.6788393220576</v>
+        <v>474.4435320509579</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.8161571130924</v>
+        <v>429.1633072376932</v>
       </c>
       <c r="AD4" t="n">
-        <v>305266.3148097708</v>
+        <v>346753.569918951</v>
       </c>
       <c r="AE4" t="n">
-        <v>417678.8393220576</v>
+        <v>474443.5320509579</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.395314165760534e-06</v>
+        <v>5.73994705980857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.968055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>377816.1571130924</v>
+        <v>429163.3072376932</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>269.986107372266</v>
+        <v>301.2295599860084</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.4069030531603</v>
+        <v>412.155573283132</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.1512266916105</v>
+        <v>372.8200238329693</v>
       </c>
       <c r="AD5" t="n">
-        <v>269986.107372266</v>
+        <v>301229.5599860084</v>
       </c>
       <c r="AE5" t="n">
-        <v>369406.9030531603</v>
+        <v>412155.5732831319</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.658489672980264e-06</v>
+        <v>6.184858312532411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.538888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>334151.2266916105</v>
+        <v>372820.0238329693</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.5177514320395</v>
+        <v>277.5906118451928</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.2964631047906</v>
+        <v>379.8117215600787</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.1053620647291</v>
+        <v>343.5630239234832</v>
       </c>
       <c r="AD6" t="n">
-        <v>246517.7514320395</v>
+        <v>277590.6118451928</v>
       </c>
       <c r="AE6" t="n">
-        <v>337296.4631047907</v>
+        <v>379811.7215600787</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.83471806140678e-06</v>
+        <v>6.482781146950592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.283333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>305105.3620647291</v>
+        <v>343563.0239234832</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.4914541600071</v>
+        <v>255.3205120777195</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.8415526144137</v>
+        <v>349.3407885705952</v>
       </c>
       <c r="AC7" t="n">
-        <v>290.2208851369365</v>
+        <v>316.0001940123981</v>
       </c>
       <c r="AD7" t="n">
-        <v>234491.4541600071</v>
+        <v>255320.5120777195</v>
       </c>
       <c r="AE7" t="n">
-        <v>320841.5526144137</v>
+        <v>349340.7885705953</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.918601607222381e-06</v>
+        <v>6.624590443134744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.170833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>290220.8851369366</v>
+        <v>316000.1940123981</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.3045735152617</v>
+        <v>256.1336314329741</v>
       </c>
       <c r="AB8" t="n">
-        <v>321.9540983885667</v>
+        <v>350.4533343447483</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.2272511038726</v>
+        <v>317.006559979334</v>
       </c>
       <c r="AD8" t="n">
-        <v>235304.5735152617</v>
+        <v>256133.6314329741</v>
       </c>
       <c r="AE8" t="n">
-        <v>321954.0983885667</v>
+        <v>350453.3343447483</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.914225074397219e-06</v>
+        <v>6.617191697246875e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.17638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>291227.2511038725</v>
+        <v>317006.5599793341</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.9822811583372</v>
+        <v>757.3498690316175</v>
       </c>
       <c r="AB2" t="n">
-        <v>967.3243469378127</v>
+        <v>1036.239502727186</v>
       </c>
       <c r="AC2" t="n">
-        <v>875.004268914315</v>
+        <v>937.3422589581793</v>
       </c>
       <c r="AD2" t="n">
-        <v>706982.2811583371</v>
+        <v>757349.8690316174</v>
       </c>
       <c r="AE2" t="n">
-        <v>967324.3469378127</v>
+        <v>1036239.502727186</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.048676544286434e-06</v>
+        <v>3.547879616636788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.23194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>875004.268914315</v>
+        <v>937342.2589581793</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.2174267537555</v>
+        <v>348.4038789393153</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.3991220465516</v>
+        <v>476.701557659116</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.8452409249336</v>
+        <v>431.2058300509674</v>
       </c>
       <c r="AD3" t="n">
-        <v>318217.4267537555</v>
+        <v>348403.8789393153</v>
       </c>
       <c r="AE3" t="n">
-        <v>435399.1220465516</v>
+        <v>476701.557659116</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293728587775427e-06</v>
+        <v>5.704049549399477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.363888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>393845.2409249336</v>
+        <v>431205.8300509674</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.9646853270755</v>
+        <v>280.2363888586591</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.0127101279676</v>
+        <v>383.431790393347</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.3714970913098</v>
+        <v>346.8375984681029</v>
       </c>
       <c r="AD4" t="n">
-        <v>249964.6853270755</v>
+        <v>280236.3888586591</v>
       </c>
       <c r="AE4" t="n">
-        <v>342012.7101279676</v>
+        <v>383431.790393347</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.746474785407788e-06</v>
+        <v>6.488111343131364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.594444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>309371.4970913098</v>
+        <v>346837.5984681029</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.1543613920879</v>
+        <v>242.335586588359</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.9613980152352</v>
+        <v>331.5742406615785</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.9517488012525</v>
+        <v>299.9292605003057</v>
       </c>
       <c r="AD5" t="n">
-        <v>222154.3613920879</v>
+        <v>242335.586588359</v>
       </c>
       <c r="AE5" t="n">
-        <v>303961.3980152352</v>
+        <v>331574.2406615785</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.980242738785297e-06</v>
+        <v>6.892948582628261e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>274951.7488012525</v>
+        <v>299929.2605003057</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.6332762679577</v>
+        <v>238.8145014642287</v>
       </c>
       <c r="AB6" t="n">
-        <v>299.1436940090903</v>
+        <v>326.7565366554336</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.5938397037625</v>
+        <v>295.5713514028157</v>
       </c>
       <c r="AD6" t="n">
-        <v>218633.2762679577</v>
+        <v>238814.5014642287</v>
       </c>
       <c r="AE6" t="n">
-        <v>299143.6940090903</v>
+        <v>326756.5366554336</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.011633141821141e-06</v>
+        <v>6.947310200327005e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>270593.8397037625</v>
+        <v>295571.3514028157</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.7176368644199</v>
+        <v>260.9784823565483</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.7827816521821</v>
+        <v>357.0822731182858</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2631617893456</v>
+        <v>323.0028421399938</v>
       </c>
       <c r="AD2" t="n">
-        <v>233717.6368644199</v>
+        <v>260978.4823565483</v>
       </c>
       <c r="AE2" t="n">
-        <v>319782.7816521821</v>
+        <v>357082.2731182858</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.647872146418991e-06</v>
+        <v>6.902559085608856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.411111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>289263.1617893456</v>
+        <v>323002.8421399938</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.0025492051496</v>
+        <v>211.3486460432953</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.7604054419287</v>
+        <v>289.1765415605082</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.7327456945725</v>
+        <v>261.5779382958837</v>
       </c>
       <c r="AD3" t="n">
-        <v>184002.5492051496</v>
+        <v>211348.6460432953</v>
       </c>
       <c r="AE3" t="n">
-        <v>251760.4054419287</v>
+        <v>289176.5415605082</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.119222628268624e-06</v>
+        <v>7.79445562704636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.677777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>227732.7456945725</v>
+        <v>261577.9382958837</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.8108437249604</v>
+        <v>387.6267746402581</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.6266289497412</v>
+        <v>530.3680539491794</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.9471752394699</v>
+        <v>479.7504712565077</v>
       </c>
       <c r="AD2" t="n">
-        <v>349810.8437249604</v>
+        <v>387626.7746402581</v>
       </c>
       <c r="AE2" t="n">
-        <v>478626.6289497412</v>
+        <v>530368.0539491794</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.991030019334278e-06</v>
+        <v>5.449007118940411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.480555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>432947.1752394699</v>
+        <v>479750.4712565077</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6264570775216</v>
+        <v>231.1163494144386</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.242457821723</v>
+        <v>316.2235854024166</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.7828267595326</v>
+        <v>286.0436502342934</v>
       </c>
       <c r="AD3" t="n">
-        <v>202626.4570775216</v>
+        <v>231116.3494144386</v>
       </c>
       <c r="AE3" t="n">
-        <v>277242.457821723</v>
+        <v>316223.5854024166</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.037874415845866e-06</v>
+        <v>7.356130261182941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>250782.8267595326</v>
+        <v>286043.6502342934</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.4490511440069</v>
+        <v>223.7683512803317</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.422014378691</v>
+        <v>306.1697301845378</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.8996326556214</v>
+        <v>276.9493208477313</v>
       </c>
       <c r="AD4" t="n">
-        <v>195449.0511440069</v>
+        <v>223768.3512803317</v>
       </c>
       <c r="AE4" t="n">
-        <v>267422.014378691</v>
+        <v>306169.7301845378</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.12261435930002e-06</v>
+        <v>7.510508034777827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.427777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>241899.6326556214</v>
+        <v>276949.3208477313</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5118065613109</v>
+        <v>212.8345051164919</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1936820572485</v>
+        <v>291.2095594959306</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8383552083613</v>
+        <v>263.4169278529086</v>
       </c>
       <c r="AD2" t="n">
-        <v>186511.8065613109</v>
+        <v>212834.5051164919</v>
       </c>
       <c r="AE2" t="n">
-        <v>255193.6820572485</v>
+        <v>291209.5594959307</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015463774693861e-06</v>
+        <v>7.869015214093852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.050000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>230838.3552083613</v>
+        <v>263416.9278529086</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.388464105605</v>
+        <v>213.7111626607861</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.3931635847525</v>
+        <v>292.4090410234346</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.9233599023635</v>
+        <v>264.5019325469108</v>
       </c>
       <c r="AD3" t="n">
-        <v>187388.464105605</v>
+        <v>213711.1626607861</v>
       </c>
       <c r="AE3" t="n">
-        <v>256393.1635847525</v>
+        <v>292409.0410234346</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.025083118202209e-06</v>
+        <v>7.887866028013236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.034722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>231923.3599023635</v>
+        <v>264501.9325469108</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.2082601934226</v>
+        <v>848.1771582789474</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.093070774019</v>
+        <v>1160.513406892584</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.2968198089649</v>
+        <v>1049.755636129551</v>
       </c>
       <c r="AD2" t="n">
-        <v>787208.2601934226</v>
+        <v>848177.1582789475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077093.070774019</v>
+        <v>1160513.406892584</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920646142654078e-06</v>
+        <v>3.304435594289045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.81527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>974296.8198089649</v>
+        <v>1049755.636129551</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.6866154188237</v>
+        <v>367.2990757434436</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.6694807811959</v>
+        <v>502.554799523775</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.7038320891148</v>
+        <v>454.5916747973162</v>
       </c>
       <c r="AD3" t="n">
-        <v>336686.6154188237</v>
+        <v>367299.0757434436</v>
       </c>
       <c r="AE3" t="n">
-        <v>460669.4807811959</v>
+        <v>502554.799523775</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.192651705905357e-06</v>
+        <v>5.492897261430326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.506944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>416703.8320891148</v>
+        <v>454591.6747973161</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.1126221587016</v>
+        <v>294.6397416287499</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.3705414640817</v>
+        <v>403.139093084463</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.8818441734893</v>
+        <v>364.6640638497518</v>
       </c>
       <c r="AD4" t="n">
-        <v>264112.6221587016</v>
+        <v>294639.7416287499</v>
       </c>
       <c r="AE4" t="n">
-        <v>361370.5414640817</v>
+        <v>403139.093084463</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.649706262201173e-06</v>
+        <v>6.279251036243231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.691666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>326881.8441734893</v>
+        <v>364664.0638497518</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.8800973590024</v>
+        <v>264.2366246284613</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.005067268121</v>
+        <v>361.5402071138097</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.4642327780792</v>
+        <v>327.0353171717346</v>
       </c>
       <c r="AD5" t="n">
-        <v>233880.0973590024</v>
+        <v>264236.6246284613</v>
       </c>
       <c r="AE5" t="n">
-        <v>320005.0672681209</v>
+        <v>361540.2071138097</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.894685111419937e-06</v>
+        <v>6.700732542507478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>289464.2327780792</v>
+        <v>327035.3171717346</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.4680782413633</v>
+        <v>242.8195807299462</v>
       </c>
       <c r="AB6" t="n">
-        <v>304.3906392486242</v>
+        <v>332.2364627984124</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.3400238537708</v>
+        <v>300.528281085835</v>
       </c>
       <c r="AD6" t="n">
-        <v>222468.0782413633</v>
+        <v>242819.5807299462</v>
       </c>
       <c r="AE6" t="n">
-        <v>304390.6392486242</v>
+        <v>332236.4627984124</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987561708101777e-06</v>
+        <v>6.860524981695571e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.209722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>275340.0238537709</v>
+        <v>300528.281085835</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.2487166768902</v>
+        <v>243.6002191654731</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.4587431954487</v>
+        <v>333.304566745237</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.3061894590041</v>
+        <v>301.4944466910682</v>
       </c>
       <c r="AD7" t="n">
-        <v>223248.7166768902</v>
+        <v>243600.2191654731</v>
       </c>
       <c r="AE7" t="n">
-        <v>305458.7431954487</v>
+        <v>333304.566745237</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.986963469153745e-06</v>
+        <v>6.859495722828015e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.209722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>276306.1894590041</v>
+        <v>301494.4466910682</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.6830098777827</v>
+        <v>209.4501849805256</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.3231976371453</v>
+        <v>286.578983380237</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.3372643890525</v>
+        <v>259.2282874226408</v>
       </c>
       <c r="AD2" t="n">
-        <v>183683.0098777827</v>
+        <v>209450.1849805256</v>
       </c>
       <c r="AE2" t="n">
-        <v>251323.1976371453</v>
+        <v>286578.983380237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.914257217901279e-06</v>
+        <v>7.846756348571243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.351388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>227337.2643890525</v>
+        <v>259228.2874226408</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.693247004991</v>
+        <v>544.6791648719941</v>
       </c>
       <c r="AB2" t="n">
-        <v>678.2293689948901</v>
+        <v>745.2540629266969</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.500109918915</v>
+        <v>674.1280611316189</v>
       </c>
       <c r="AD2" t="n">
-        <v>495693.2470049909</v>
+        <v>544679.1648719941</v>
       </c>
       <c r="AE2" t="n">
-        <v>678229.3689948901</v>
+        <v>745254.0629266968</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480525998512149e-06</v>
+        <v>4.393195863562018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.705555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>613500.109918915</v>
+        <v>674128.0611316189</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.7918743047627</v>
+        <v>283.2346295377108</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.2492389308978</v>
+        <v>387.5341155634688</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.1082589348044</v>
+        <v>350.5484034816379</v>
       </c>
       <c r="AD3" t="n">
-        <v>253791.8743047627</v>
+        <v>283234.6295377107</v>
       </c>
       <c r="AE3" t="n">
-        <v>347249.2389308978</v>
+        <v>387534.1155634688</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.637990772092319e-06</v>
+        <v>6.443151985191533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.936111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>314108.2589348044</v>
+        <v>350548.4034816379</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.5170096686199</v>
+        <v>239.7891727009721</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.0386599834704</v>
+        <v>328.0901248410055</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.5486545395311</v>
+        <v>296.7776638036598</v>
       </c>
       <c r="AD4" t="n">
-        <v>210517.0096686199</v>
+        <v>239789.1727009721</v>
       </c>
       <c r="AE4" t="n">
-        <v>288038.6599834705</v>
+        <v>328090.1248410055</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.039464985604409e-06</v>
+        <v>7.154192649625629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.345833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>260548.6545395312</v>
+        <v>296777.6638036598</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.2567755355872</v>
+        <v>236.5289385679394</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.5778638112785</v>
+        <v>323.6293286688135</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.513590493245</v>
+        <v>292.7425997573736</v>
       </c>
       <c r="AD5" t="n">
-        <v>207256.7755355872</v>
+        <v>236528.9385679394</v>
       </c>
       <c r="AE5" t="n">
-        <v>283577.8638112785</v>
+        <v>323629.3286688135</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.073050744751818e-06</v>
+        <v>7.213675524729332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.30138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>256513.590493245</v>
+        <v>292742.5997573736</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.7059787016821</v>
+        <v>674.7169371708103</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.7502801423295</v>
+        <v>923.1774798475635</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.1741130550977</v>
+        <v>835.0707168586422</v>
       </c>
       <c r="AD2" t="n">
-        <v>624705.9787016821</v>
+        <v>674716.9371708103</v>
       </c>
       <c r="AE2" t="n">
-        <v>854750.2801423295</v>
+        <v>923177.4798475635</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186358419297916e-06</v>
+        <v>3.81281817217795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.677777777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>773174.1130550976</v>
+        <v>835070.7168586422</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.2085866933646</v>
+        <v>330.129910428821</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.7586325819739</v>
+        <v>451.698307752465</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.5564051917112</v>
+        <v>408.5888552231256</v>
       </c>
       <c r="AD3" t="n">
-        <v>300208.5866933646</v>
+        <v>330129.910428821</v>
       </c>
       <c r="AE3" t="n">
-        <v>410758.6325819739</v>
+        <v>451698.307752465</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397684166063836e-06</v>
+        <v>5.92526450253729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.227777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>371556.4051917112</v>
+        <v>408588.8552231255</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.4223453635655</v>
+        <v>266.4289204450454</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.483483144029</v>
+        <v>364.5398029673256</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.6106735247789</v>
+        <v>329.7486358069501</v>
       </c>
       <c r="AD4" t="n">
-        <v>236422.3453635655</v>
+        <v>266428.9204450454</v>
       </c>
       <c r="AE4" t="n">
-        <v>323483.483144029</v>
+        <v>364539.8029673256</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.842999869471808e-06</v>
+        <v>6.701856204667883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.505555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>292610.6735247789</v>
+        <v>329748.63580695</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.5738870402196</v>
+        <v>234.5783599364217</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.5894585800884</v>
+        <v>320.9604609317165</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.5696927086845</v>
+        <v>290.3284450113248</v>
       </c>
       <c r="AD5" t="n">
-        <v>214573.8870402196</v>
+        <v>234578.3599364217</v>
       </c>
       <c r="AE5" t="n">
-        <v>293589.4585800885</v>
+        <v>320960.4609317164</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032521845195215e-06</v>
+        <v>7.032365981421375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.247222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>265569.6927086845</v>
+        <v>290328.4450113248</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.2795313445139</v>
+        <v>235.284004240716</v>
       </c>
       <c r="AB6" t="n">
-        <v>294.554952248053</v>
+        <v>321.9259545996809</v>
       </c>
       <c r="AC6" t="n">
-        <v>266.4430410160576</v>
+        <v>291.2017933186979</v>
       </c>
       <c r="AD6" t="n">
-        <v>215279.5313445139</v>
+        <v>235284.004240716</v>
       </c>
       <c r="AE6" t="n">
-        <v>294554.952248053</v>
+        <v>321925.954599681</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.033131240615548e-06</v>
+        <v>7.033428713822513e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.245833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>266443.0410160577</v>
+        <v>291201.7933186979</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.98176152058</v>
+        <v>1073.921062117656</v>
       </c>
       <c r="AB2" t="n">
-        <v>1384.638091596856</v>
+        <v>1469.386175242862</v>
       </c>
       <c r="AC2" t="n">
-        <v>1252.490175486618</v>
+        <v>1329.150020974132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011981.76152058</v>
+        <v>1073921.062117656</v>
       </c>
       <c r="AE2" t="n">
-        <v>1384638.091596856</v>
+        <v>1469386.175242862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674906708182722e-06</v>
+        <v>2.847230397159242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1252490.175486618</v>
+        <v>1329150.020974132</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.1804131510502</v>
+        <v>418.444773591876</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.0748812987021</v>
+        <v>572.5345997089413</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.8214189431983</v>
+        <v>517.8927010700767</v>
       </c>
       <c r="AD3" t="n">
-        <v>377180.4131510502</v>
+        <v>418444.773591876</v>
       </c>
       <c r="AE3" t="n">
-        <v>516074.881298702</v>
+        <v>572534.5997089413</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995715492458158e-06</v>
+        <v>5.092517792004221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.818055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>466821.4189431983</v>
+        <v>517892.7010700767</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.4831108180283</v>
+        <v>323.4953867895765</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.1882956653974</v>
+        <v>442.6206598147251</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.9948863948916</v>
+        <v>400.3775652640047</v>
       </c>
       <c r="AD4" t="n">
-        <v>292483.1108180283</v>
+        <v>323495.3867895764</v>
       </c>
       <c r="AE4" t="n">
-        <v>400188.2956653974</v>
+        <v>442620.659814725</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.469659682139714e-06</v>
+        <v>5.898191503158237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.886111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>361994.8863948917</v>
+        <v>400377.5652640046</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.8764535679716</v>
+        <v>288.7181373389307</v>
       </c>
       <c r="AB5" t="n">
-        <v>352.8379404777367</v>
+        <v>395.0368928523887</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.1635826498066</v>
+        <v>357.3351262363173</v>
       </c>
       <c r="AD5" t="n">
-        <v>257876.4535679716</v>
+        <v>288718.1373389307</v>
       </c>
       <c r="AE5" t="n">
-        <v>352837.9404777367</v>
+        <v>395036.8928523887</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735821327601586e-06</v>
+        <v>6.350648660213394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>319163.5826498066</v>
+        <v>357335.1262363173</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>235.9330421705231</v>
+        <v>256.6079823267726</v>
       </c>
       <c r="AB6" t="n">
-        <v>322.8139969287752</v>
+        <v>351.1023621645275</v>
       </c>
       <c r="AC6" t="n">
-        <v>292.005082134279</v>
+        <v>317.59364549491</v>
       </c>
       <c r="AD6" t="n">
-        <v>235933.0421705231</v>
+        <v>256607.9823267726</v>
       </c>
       <c r="AE6" t="n">
-        <v>322813.9969287752</v>
+        <v>351102.3621645275</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.901253289559932e-06</v>
+        <v>6.631872031311211e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.234722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>292005.082134279</v>
+        <v>317593.6454949101</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.4109844596749</v>
+        <v>251.0859246159244</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.2584739528039</v>
+        <v>343.5468391885562</v>
       </c>
       <c r="AC7" t="n">
-        <v>285.170647666889</v>
+        <v>310.75921102752</v>
       </c>
       <c r="AD7" t="n">
-        <v>230410.9844596749</v>
+        <v>251085.9246159244</v>
       </c>
       <c r="AE7" t="n">
-        <v>315258.4739528039</v>
+        <v>343546.8391885562</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943015669289862e-06</v>
+        <v>6.702865308992794e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.179166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>285170.647666889</v>
+        <v>310759.21102752</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.0806736617051</v>
+        <v>430.5132591063212</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.4620750824803</v>
+        <v>589.0472340138093</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.2628875658588</v>
+        <v>532.8293927325159</v>
       </c>
       <c r="AD2" t="n">
-        <v>392080.6736617051</v>
+        <v>430513.2591063213</v>
       </c>
       <c r="AE2" t="n">
-        <v>536462.0750824803</v>
+        <v>589047.2340138094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804054962303316e-06</v>
+        <v>5.056374648437833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.880555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>485262.8875658588</v>
+        <v>532829.3927325159</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.5500245148106</v>
+        <v>248.3744635982722</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.398029404512</v>
+        <v>339.8368986029886</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.7284630895164</v>
+        <v>307.4033419645035</v>
       </c>
       <c r="AD3" t="n">
-        <v>219550.0245148106</v>
+        <v>248374.4635982722</v>
       </c>
       <c r="AE3" t="n">
-        <v>300398.029404512</v>
+        <v>339836.8986029886</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.898091384393405e-06</v>
+        <v>7.029181210182243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.668055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>271728.4630895164</v>
+        <v>307403.3419645035</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.9287747289375</v>
+        <v>227.5826216118068</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.1831257021606</v>
+        <v>311.3885831257904</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.2063501966423</v>
+        <v>281.6700937889784</v>
       </c>
       <c r="AD4" t="n">
-        <v>198928.7747289375</v>
+        <v>227582.6216118069</v>
       </c>
       <c r="AE4" t="n">
-        <v>272183.1257021606</v>
+        <v>311388.5831257903</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.114448739932523e-06</v>
+        <v>7.419324721011443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.369444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>246206.3501966423</v>
+        <v>281670.0937889784</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.6786201436041</v>
+        <v>303.6001612869375</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.8814531108669</v>
+        <v>415.3991345666113</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.0576793403007</v>
+        <v>375.7540241799202</v>
       </c>
       <c r="AD2" t="n">
-        <v>266678.6201436041</v>
+        <v>303600.1612869375</v>
       </c>
       <c r="AE2" t="n">
-        <v>364881.4531108668</v>
+        <v>415399.1345666113</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409589827826009e-06</v>
+        <v>6.361204768095685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>330057.6793403007</v>
+        <v>375754.0241799202</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.3952984199036</v>
+        <v>215.150459918332</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.4025145950845</v>
+        <v>294.3783510285216</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.9318184653937</v>
+        <v>266.2832943690569</v>
       </c>
       <c r="AD3" t="n">
-        <v>187395.2984199036</v>
+        <v>215150.459918332</v>
       </c>
       <c r="AE3" t="n">
-        <v>256402.5145950845</v>
+        <v>294378.3510285216</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.132605158023086e-06</v>
+        <v>7.71012026764375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.569444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>231931.8184653937</v>
+        <v>266283.2943690569</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.3360862173778</v>
+        <v>229.1513028108349</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.8451596006161</v>
+        <v>313.5349219476296</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.4234461230364</v>
+        <v>283.6115890460675</v>
       </c>
       <c r="AD2" t="n">
-        <v>202336.0862173777</v>
+        <v>229151.302810835</v>
       </c>
       <c r="AE2" t="n">
-        <v>276845.1596006161</v>
+        <v>313534.9219476297</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.916026394928417e-06</v>
+        <v>7.530663977834139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>250423.4461230364</v>
+        <v>283611.5890460676</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.0540753752738</v>
+        <v>207.9545433147516</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.7261734704097</v>
+        <v>284.5325804700726</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.083535160334</v>
+        <v>257.3771903340773</v>
       </c>
       <c r="AD3" t="n">
-        <v>181054.0753752739</v>
+        <v>207954.5433147516</v>
       </c>
       <c r="AE3" t="n">
-        <v>247726.1734704098</v>
+        <v>284532.5804700726</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.085394022234899e-06</v>
+        <v>7.85636420590716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.827777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>224083.535160334</v>
+        <v>257377.1903340773</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0816857517422</v>
+        <v>216.6046118975807</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.500439439349</v>
+        <v>296.3679859191863</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.5930290789053</v>
+        <v>268.0830412982273</v>
       </c>
       <c r="AD2" t="n">
-        <v>183081.6857517422</v>
+        <v>216604.6118975807</v>
       </c>
       <c r="AE2" t="n">
-        <v>250500.4394393491</v>
+        <v>296367.9859191863</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.70208335869092e-06</v>
+        <v>7.635914623264194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>226593.0290789053</v>
+        <v>268083.0412982273</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.5902662376387</v>
+        <v>601.2312596269394</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.3925778803094</v>
+        <v>822.6311338727522</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.0582686931683</v>
+        <v>744.1203730259837</v>
       </c>
       <c r="AD2" t="n">
-        <v>561590.2662376388</v>
+        <v>601231.2596269394</v>
       </c>
       <c r="AE2" t="n">
-        <v>768392.5778803094</v>
+        <v>822631.1338727522</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.329587786087029e-06</v>
+        <v>4.092993843098387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>695058.2686931683</v>
+        <v>744120.3730259837</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.6796760509386</v>
+        <v>311.3251026154801</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.4065596031608</v>
+        <v>425.9687400926823</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.6238984761382</v>
+        <v>385.3148813891175</v>
       </c>
       <c r="AD3" t="n">
-        <v>281679.6760509385</v>
+        <v>311325.1026154801</v>
       </c>
       <c r="AE3" t="n">
-        <v>385406.5596031608</v>
+        <v>425968.7400926822</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.515154093339377e-06</v>
+        <v>6.175987076986965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>348623.8984761381</v>
+        <v>385314.8813891175</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.4521849725615</v>
+        <v>252.012270682531</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.3688933770879</v>
+        <v>344.8143067443909</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.3203533776935</v>
+        <v>311.905713258728</v>
       </c>
       <c r="AD4" t="n">
-        <v>222452.1849725615</v>
+        <v>252012.270682531</v>
       </c>
       <c r="AE4" t="n">
-        <v>304368.8933770879</v>
+        <v>344814.3067443909</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.947528048352888e-06</v>
+        <v>6.935651059754896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.413888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>275320.3533776935</v>
+        <v>311905.713258728</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.6101508518924</v>
+        <v>230.4306923008179</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.1660998595227</v>
+        <v>315.2854390905043</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.663931732676</v>
+        <v>285.195039289693</v>
       </c>
       <c r="AD5" t="n">
-        <v>210610.1508518924</v>
+        <v>230430.6923008179</v>
       </c>
       <c r="AE5" t="n">
-        <v>288166.0998595227</v>
+        <v>315285.4390905043</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.054313644359783e-06</v>
+        <v>7.123269139484769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>260663.931732676</v>
+        <v>285195.039289693</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>892.4367856801504</v>
+        <v>953.8136341140515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1221.071381699863</v>
+        <v>1305.049893482576</v>
       </c>
       <c r="AC2" t="n">
-        <v>1104.534042814875</v>
+        <v>1180.497763297627</v>
       </c>
       <c r="AD2" t="n">
-        <v>892436.7856801504</v>
+        <v>953813.6341140515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1221071.381699863</v>
+        <v>1305049.893482576</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794557473701244e-06</v>
+        <v>3.068493290245356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.475</v>
       </c>
       <c r="AH2" t="n">
-        <v>1104534.042814875</v>
+        <v>1180497.763297627</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.8656790747241</v>
+        <v>397.8119653098148</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.2793659126575</v>
+        <v>544.3038811621662</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.6786685343469</v>
+        <v>492.3562826793436</v>
       </c>
       <c r="AD3" t="n">
-        <v>356865.6790747241</v>
+        <v>397811.9653098148</v>
       </c>
       <c r="AE3" t="n">
-        <v>488279.3659126575</v>
+        <v>544303.8811621662</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090173701512652e-06</v>
+        <v>5.28385265322676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.663888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>441678.6685343469</v>
+        <v>492356.2826793435</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.8511872326258</v>
+        <v>308.6249075498725</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.1682523009392</v>
+        <v>422.2742140797191</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.8855278708301</v>
+        <v>381.9729557535317</v>
       </c>
       <c r="AD4" t="n">
-        <v>277851.1872326258</v>
+        <v>308624.9075498725</v>
       </c>
       <c r="AE4" t="n">
-        <v>380168.2523009392</v>
+        <v>422274.214079719</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561980846957365e-06</v>
+        <v>6.090590292618706e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.781944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>343885.5278708301</v>
+        <v>381972.9557535317</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.5823637281418</v>
+        <v>276.1854918447993</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.0166243819253</v>
+        <v>377.8891743860208</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.9476693533088</v>
+        <v>341.8239619534055</v>
       </c>
       <c r="AD5" t="n">
-        <v>245582.3637281418</v>
+        <v>276185.4918447993</v>
       </c>
       <c r="AE5" t="n">
-        <v>336016.6243819253</v>
+        <v>377889.1743860208</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.816418641295243e-06</v>
+        <v>6.525650565779165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.395833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>303947.6693533087</v>
+        <v>341823.9619534055</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.7783698919955</v>
+        <v>248.2942729453774</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.6564145585489</v>
+        <v>339.7271782139362</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.9123637656984</v>
+        <v>307.3040931353885</v>
       </c>
       <c r="AD6" t="n">
-        <v>227778.3698919955</v>
+        <v>248294.2729453774</v>
       </c>
       <c r="AE6" t="n">
-        <v>311656.4145585489</v>
+        <v>339727.1782139362</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.953571881250101e-06</v>
+        <v>6.760167321416359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>281912.3637656984</v>
+        <v>307304.0931353886</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.0588903157681</v>
+        <v>247.57479336915</v>
       </c>
       <c r="AB7" t="n">
-        <v>310.6719908611564</v>
+        <v>338.7427545165435</v>
       </c>
       <c r="AC7" t="n">
-        <v>281.0218920843373</v>
+        <v>306.4136214540275</v>
       </c>
       <c r="AD7" t="n">
-        <v>227058.8903157681</v>
+        <v>247574.79336915</v>
       </c>
       <c r="AE7" t="n">
-        <v>310671.9908611564</v>
+        <v>338742.7545165435</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.961875212533855e-06</v>
+        <v>6.774365092568448e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.197222222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>281021.8920843373</v>
+        <v>306413.6214540275</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.2439854430223</v>
+        <v>235.7104479639903</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.0873873748294</v>
+        <v>322.5094337152339</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.5471174219568</v>
+        <v>291.7295860063808</v>
       </c>
       <c r="AD2" t="n">
-        <v>203243.9854430223</v>
+        <v>235710.4479639903</v>
       </c>
       <c r="AE2" t="n">
-        <v>278087.3873748294</v>
+        <v>322509.4337152339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.270710265014135e-06</v>
+        <v>7.010638555875423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>251547.1174219568</v>
+        <v>291729.5860063809</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.5103184734967</v>
+        <v>339.645139907286</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.2221606007676</v>
+        <v>464.7174645071987</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.5441157995891</v>
+        <v>420.3654819296887</v>
       </c>
       <c r="AD2" t="n">
-        <v>311510.3184734967</v>
+        <v>339645.139907286</v>
       </c>
       <c r="AE2" t="n">
-        <v>426222.1606007676</v>
+        <v>464717.4645071987</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190877010671124e-06</v>
+        <v>5.878975619975958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>385544.1157995891</v>
+        <v>420365.4819296887</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1017834110379</v>
+        <v>219.0659231356835</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4738908785291</v>
+        <v>299.7356605405452</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5191897140693</v>
+        <v>271.1293097802858</v>
       </c>
       <c r="AD3" t="n">
-        <v>191101.7834110379</v>
+        <v>219065.9231356835</v>
       </c>
       <c r="AE3" t="n">
-        <v>261473.8908785291</v>
+        <v>299735.6605405452</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.130993640683083e-06</v>
+        <v>7.611077085902345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.490277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>236519.1897140693</v>
+        <v>271129.3097802858</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.7444520432197</v>
+        <v>219.7085917678653</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.3532184536188</v>
+        <v>300.6149881156349</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.3145954995368</v>
+        <v>271.9247155657532</v>
       </c>
       <c r="AD4" t="n">
-        <v>191744.4520432197</v>
+        <v>219708.5917678653</v>
       </c>
       <c r="AE4" t="n">
-        <v>262353.2184536188</v>
+        <v>300614.9881156349</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.134259635576297e-06</v>
+        <v>7.617094461153087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.486111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>237314.5954995368</v>
+        <v>271924.7155657532</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.359016122543</v>
+        <v>485.1288217401318</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.728097828866</v>
+        <v>663.7746562779607</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.4410653343471</v>
+        <v>600.4249346963726</v>
       </c>
       <c r="AD2" t="n">
-        <v>446359.016122543</v>
+        <v>485128.8217401318</v>
       </c>
       <c r="AE2" t="n">
-        <v>610728.097828866</v>
+        <v>663774.6562779607</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.637409982717873e-06</v>
+        <v>4.711540460479773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.279166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>552441.0653343471</v>
+        <v>600424.9346963726</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.4147591472354</v>
+        <v>266.5560518699455</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.8413474650516</v>
+        <v>364.7137497915165</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.8389451807782</v>
+        <v>329.9059813903761</v>
       </c>
       <c r="AD3" t="n">
-        <v>237414.7591472354</v>
+        <v>266556.0518699455</v>
       </c>
       <c r="AE3" t="n">
-        <v>324841.3474650516</v>
+        <v>364713.7497915165</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.756049149754396e-06</v>
+        <v>6.709907696027527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.813888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>293838.9451807782</v>
+        <v>329905.9813903761</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.7669075054989</v>
+        <v>231.7376080276135</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.4346282935171</v>
+        <v>317.0736188449577</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.9566567512115</v>
+        <v>286.812557678108</v>
       </c>
       <c r="AD4" t="n">
-        <v>202766.9075054989</v>
+        <v>231737.6080276135</v>
       </c>
       <c r="AE4" t="n">
-        <v>277434.628293517</v>
+        <v>317073.6188449577</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.092348401798124e-06</v>
+        <v>7.310681767262474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.336111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>250956.6567512115</v>
+        <v>286812.557678108</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.1177973919393</v>
+        <v>232.0884979140538</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.9147313163137</v>
+        <v>317.5537218677544</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.3909394153415</v>
+        <v>287.246840342238</v>
       </c>
       <c r="AD5" t="n">
-        <v>203117.7973919393</v>
+        <v>232088.4979140538</v>
       </c>
       <c r="AE5" t="n">
-        <v>277914.7313163137</v>
+        <v>317553.7218677544</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.098951753170652e-06</v>
+        <v>7.322478172588265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.327777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>251390.9394153415</v>
+        <v>287246.840342238</v>
       </c>
     </row>
   </sheetData>
